--- a/Data Dummy Bulanan.xlsx
+++ b/Data Dummy Bulanan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/384e753b9cf9534d/Documents/KERJA PRAKTEK SIG/DASHBOARD_UPDATE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/384e753b9cf9534d/Documents/KERJA PRAKTEK SIG/DASHBOARD_VERSI6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D066CA252ABDACC10483C11DB46605BDEDCB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D8A8DF5-56A1-412B-B11E-23D59D5A2EC0}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D066CA252ABDACC10483C11DB46605BDEDCB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BCF9D2B-7905-47E0-9B90-B4207B5379BE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Tanggal</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Devi</t>
+  </si>
+  <si>
+    <t>OPC Premium</t>
+  </si>
+  <si>
+    <t>PCC Reguler</t>
+  </si>
+  <si>
+    <t>Jenis Semen</t>
   </si>
 </sst>
 </file>
@@ -443,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AA195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,76 +471,79 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45292</v>
       </c>
@@ -541,77 +553,80 @@
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3">
         <v>19.46</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>5.28</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>3.35</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>64.09</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>2.25</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>63.15</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>5.47</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>7.92</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>350.39</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>0.24</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>0.21</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>0.35</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>203.8727368421053</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>263.29000000000002</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>356.49</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>456.01</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>121.65</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45294</v>
       </c>
@@ -621,77 +636,80 @@
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3">
         <v>19.149999999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>4.99</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>3.56</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>64.819999999999993</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>1.8</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>2.34</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>68.94</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>-0.19</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>6.78</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>10.23</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>1.39</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>2.8</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>1.79</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>366.21</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>0.15</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>0.31</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>157.03</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>292.25</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>400.95</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>538.61</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>121.3</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45296</v>
       </c>
@@ -701,77 +719,80 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3">
         <v>19.739999999999998</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>5.17</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>3.39</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>64.91</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>1.91</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>2.25</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>64.59</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>7.54</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>9.7799999999999994</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>1.77</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>2.65</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>2.06</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>366.9</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>0.16</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>0.33</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>160.69999999999999</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>290.20999999999998</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>411.14</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>524.53</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>107</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45298</v>
       </c>
@@ -781,77 +802,80 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3">
         <v>19.489999999999998</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>5.26</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>3.36</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>64.91</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>1.79</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>2.27</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>66.040000000000006</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>3.25</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>7.83</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>9.7200000000000006</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>1.37</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>367.43</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>0.23</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>0.15</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>0.36</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>146.02000000000001</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>285.11</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>380.14</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>469.27</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>99</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45300</v>
       </c>
@@ -861,77 +885,80 @@
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3">
         <v>18.940000000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>5.14</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>3.21</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>64.37</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>1.84</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>68.48</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>-0.38</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>7.75</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>9.2100000000000009</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>1.02</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>2.75</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>3.16</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>368.16</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>0.21</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>0.15</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>0.33</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>157.03</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>280.83</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>356.9</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>505.57</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>98</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45302</v>
       </c>
@@ -941,77 +968,80 @@
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3">
         <v>19.73</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>5.1100000000000003</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>3.52</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>65.16</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>1.91</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>2.27</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>65.64</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>3.88</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>7.17</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>10.1</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>2</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>2.77</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>2.46</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>373.06</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>0.43</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>0.15</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>0.34</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>156.63</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>276.54000000000002</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>372.39</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>487.62</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>126.43</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45304</v>
       </c>
@@ -1021,77 +1051,80 @@
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
         <v>19.43</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5.17</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3.38</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64.73</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1.98</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2.23</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66.3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2.81</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7.58</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9.74</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1.28</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2.59</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2.33</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>364.85</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>0.32</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>0.15</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>0.32</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>155.81</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>285.31</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>376.88</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>482.32</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>118.67</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45306</v>
       </c>
@@ -1101,77 +1134,80 @@
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
         <v>19.37</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5.1100000000000003</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3.4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>64.77</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1.93</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>66.83</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1.97</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7.35</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9.75</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>0.6</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2.81</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2.16</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>378.4</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>0.22</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>0.15</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>0.32</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>152.55000000000001</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>300.2</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>381.37</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>475.59</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>126.62</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45308</v>
       </c>
@@ -1181,77 +1217,80 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
         <v>19.13</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5.08</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3.37</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64.989999999999995</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1.98</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2.27</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>69.290000000000006</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-0.69</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7.31</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9.6300000000000008</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>0.94</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2.94</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2.79</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>370.72</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>0.25</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>0.15</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>0.34</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>134.6</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>271.64999999999998</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>411.14</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>460.9</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>128.71</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45310</v>
       </c>
@@ -1261,77 +1300,80 @@
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
         <v>19.28</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>5.16</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>3.35</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>64.489999999999995</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>1.92</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>2.14</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>66.44</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>2.02</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>7.56</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>9.6199999999999992</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>1.43</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>2.78</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>2.19</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>345.9</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>0.27</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>0.16</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>0.37</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>139.9</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>265.73</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>327.52999999999997</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>448.46</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>151</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45312</v>
       </c>
@@ -1341,77 +1383,80 @@
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3">
         <v>19.46</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5.07</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3.47</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>64.77</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1.91</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2.21</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>66.41</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2.52</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7.15</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9.9499999999999993</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1.35</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2.81</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>384.12</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>0.22</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>0.15</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>0.33</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>203.8727368421053</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>266.35000000000002</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>360.57</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>485.38</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>109.35</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45314</v>
       </c>
@@ -1421,77 +1466,80 @@
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3">
         <v>19.2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>5.08</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>3.44</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>64.89</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>1.89</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>2.15</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>69.099999999999994</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>-0.08</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>7.22</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>9.89</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>1.61</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>2.69</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>2.33</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>372.39</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>0.33</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>0.16</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>0.38</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>143.57</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>285.11</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>380.96</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>538.61</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>98</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45316</v>
       </c>
@@ -1501,77 +1549,80 @@
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3">
         <v>18.68</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5.14</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3.25</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>64.05</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1.84</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>68.73</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1.69</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7.6</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9.25</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1.91</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3.08</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>0.43</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>428.16</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>0.44</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>0.17</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>0.35</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>192.11</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>336.09</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>391.16</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>527.59</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>88.57</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45318</v>
       </c>
@@ -1581,77 +1632,80 @@
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3">
         <v>19.13</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5.17</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3.35</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>64.680000000000007</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2.25</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>67.75</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>0.49</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7.55</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9.58</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1.39</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2.92</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>0.86</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>418.89</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>0.21</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>0.17</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>0.36</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>222.7</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>381.57</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>437.66</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>568.58000000000004</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>113.65</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45320</v>
       </c>
@@ -1661,77 +1715,80 @@
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3">
         <v>19.18</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>5.23</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>3.43</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>64.650000000000006</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>1.99</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>67.2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>1.41</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>7.64</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>9.89</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>1.7</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>2.62</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <v>0.6</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>422.43</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>0.26</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T16" s="3">
         <v>0.16</v>
       </c>
-      <c r="T16" s="3">
+      <c r="U16" s="3">
         <v>0.37</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>220.26</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>380.96</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>466.21</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>579.19000000000005</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>84</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45322</v>
       </c>
@@ -1741,75 +1798,612 @@
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3">
         <v>19.28</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5.33</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3.1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>64.010000000000005</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1.97</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2.25</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63.34</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4.16</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8.34</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8.86</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1.4</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2.96</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4.88</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>426.16</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>0.21</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>0.17</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>0.37</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>187.22</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>362.61</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>445.81</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>542.07000000000005</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>89.26</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>196</v>
       </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D195" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
